--- a/xlsx/sample.xlsx
+++ b/xlsx/sample.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">DIGITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Vinoya </t>
+    <t xml:space="preserve">Vinoya</t>
   </si>
   <si>
     <t xml:space="preserve">Cedrick Anne </t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">cedrickannavinoya03@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ann Michel Pascual </t>
+    <t xml:space="preserve">Ann Michel Pascual</t>
   </si>
   <si>
     <t xml:space="preserve">Mother </t>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,12 +268,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -362,67 +356,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -680,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/xlsx/sample.xlsx
+++ b/xlsx/sample.xlsx
@@ -106,7 +106,7 @@
     <t xml:space="preserve">DIGITAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Vinoya</t>
+    <t xml:space="preserve">Vinoya </t>
   </si>
   <si>
     <t xml:space="preserve">Cedrick Anne </t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">cedrickannavinoya03@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Ann Michel Pascual</t>
+    <t xml:space="preserve">Ann Michel Pascual </t>
   </si>
   <si>
     <t xml:space="preserve">Mother </t>
@@ -204,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,6 +266,12 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <u val="single"/>
@@ -356,67 +362,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -674,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/xlsx/sample.xlsx
+++ b/xlsx/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="57">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -178,22 +178,19 @@
     <t xml:space="preserve">REL</t>
   </si>
   <si>
-    <t xml:space="preserve">ST 7669 0924 0000 0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student - Plan A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenneth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ye22ah@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eddrin Desiderio</t>
+    <t xml:space="preserve">ST 7669 0924 0000 -1213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 7669 0924 0000 -2427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 7669 0924 0000 -3641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 7669 0924 0000 -4855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST 7669 0924 0000 -6069</t>
   </si>
 </sst>
 </file>
@@ -204,7 +201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,12 +265,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
@@ -357,73 +348,77 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -678,10 +673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -916,53 +911,255 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>45717</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>32721</v>
+      </c>
+      <c r="J4" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <v>-8449817565</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15" t="n">
-        <v>45712</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="15" t="n">
+        <v>45722</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <v>28550</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>-17223869364</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>45727</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>24379</v>
+      </c>
+      <c r="J6" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="11" t="n">
+        <v>-25997921163</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>45732</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <v>20208</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>-34771972962</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <v>45737</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="15" t="n">
-        <v>36892</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>51</v>
+      <c r="I8" s="12" t="n">
+        <v>16037</v>
+      </c>
+      <c r="J8" s="11" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="11" t="n">
+        <v>-43546024761</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="M3" r:id="rId1" display="yeah@gmail.com"/>
-    <hyperlink ref="M4" r:id="rId2" display="ye22ah@gmail.com"/>
+    <hyperlink ref="M5" r:id="rId2" display="yeah@gmail.com"/>
+    <hyperlink ref="M7" r:id="rId3" display="yeah@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/xlsx/sample.xlsx
+++ b/xlsx/sample.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\newxampp\htdocs\WARAPWARAPWARAP-main\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF919F7-2526-4D9A-82E9-DE73E9ED5001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -123,7 +112,7 @@
     <t xml:space="preserve">Lebanan Subdv Brgy 2-1 Lower Osmena St Koronadal City South Cotobato </t>
   </si>
   <si>
-    <t>cedrickannavinoya03@gmail.com</t>
+    <t>angelesk13@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Ann Michel Pascual </t>
@@ -174,7 +163,7 @@
     <t>san carlos</t>
   </si>
   <si>
-    <t>yeah@gmail.com</t>
+    <t>eddrind17@gmail.com</t>
   </si>
   <si>
     <t>Mike Tallada</t>
@@ -183,19 +172,19 @@
     <t>REL</t>
   </si>
   <si>
+    <t>ST 7669 0924 0000 0002</t>
+  </si>
+  <si>
+    <t>Tallada</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>ST 7669 0924 0000 0003</t>
+  </si>
+  <si>
     <t>Angeles</t>
-  </si>
-  <si>
-    <t>ST 7669 0924 0000 0002</t>
-  </si>
-  <si>
-    <t>ST 7669 0924 0000 0003</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Tallada</t>
   </si>
   <si>
     <t>ST 7669 0924 0000 0004</t>
@@ -210,68 +199,69 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
+      <color rgb="FF0563c1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,18 +273,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor rgb="FF8EA9DB"/>
+        <fgColor rgb="FF5b9bd5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FF8ea9db"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -304,174 +292,152 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="28">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8EA9DB"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -480,12 +446,12 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -512,139 +478,245 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -655,501 +727,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="61.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="33.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="29.88671875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.109375" style="1"/>
+    <col min="1" max="1" style="23" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="24" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="24" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="24" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="24" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="24" width="21.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="24" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="13.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="24" width="61.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="23" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="24" width="31.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="24" width="35.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="24" width="31.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="26" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="27" width="33.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="27" width="29.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="27" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="27" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="27" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="27" width="6.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="27" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="27" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="27" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="27" width="9.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="8" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="64.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="15">
         <v>45707</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="15">
         <v>41063</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="12">
         <v>12</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="12">
         <v>9098286033</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="15">
         <v>30483</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Y2" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="20">
         <v>45712</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="20">
         <v>36892</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="17">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="17">
         <v>324234234</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="19" t="s">
         <v>51</v>
       </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="20">
+        <v>45713</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="G4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="20">
+        <v>36893</v>
+      </c>
+      <c r="J4" s="17">
+        <v>22</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="17">
+        <v>324234235</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14">
-        <v>45713</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E5" s="20">
+        <v>45714</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="14">
-        <v>36893</v>
-      </c>
-      <c r="J4" s="1">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="I5" s="20">
+        <v>36894</v>
+      </c>
+      <c r="J5" s="17">
+        <v>23</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="1">
-        <v>324234235</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="L5" s="17">
+        <v>324234236</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="14">
-        <v>45714</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="E6" s="20">
+        <v>45715</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="14">
-        <v>36894</v>
-      </c>
-      <c r="J5" s="1">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="I6" s="20">
+        <v>36895</v>
+      </c>
+      <c r="J6" s="17">
+        <v>24</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="1">
-        <v>324234236</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="L6" s="17">
+        <v>324234237</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O6" s="19" t="s">
         <v>51</v>
       </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14">
-        <v>45715</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="E7" s="20">
+        <v>45716</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="14">
-        <v>36895</v>
-      </c>
-      <c r="J6" s="1">
-        <v>24</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="I7" s="20">
+        <v>36896</v>
+      </c>
+      <c r="J7" s="17">
+        <v>25</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="1">
-        <v>324234237</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="L7" s="17">
+        <v>324234238</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O7" s="19" t="s">
         <v>51</v>
       </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="13" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="14">
-        <v>45716</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="E8" s="20">
+        <v>45717</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="14">
-        <v>36896</v>
-      </c>
-      <c r="J7" s="1">
-        <v>25</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="I8" s="20">
+        <v>36897</v>
+      </c>
+      <c r="J8" s="17">
+        <v>26</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="1">
-        <v>324234238</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="L8" s="17">
+        <v>324234239</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O8" s="19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14">
-        <v>45717</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14">
-        <v>36897</v>
-      </c>
-      <c r="J8" s="1">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="1">
-        <v>324234239</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M4" r:id="rId2" xr:uid="{789E4868-014B-470B-BA1B-60D04568874E}"/>
-    <hyperlink ref="M5" r:id="rId3" xr:uid="{2BBF6BE1-C312-4170-9053-8116C155A3C7}"/>
-    <hyperlink ref="M6" r:id="rId4" xr:uid="{7BE5290C-8D0D-4857-9F2D-AA888502792A}"/>
-    <hyperlink ref="M7" r:id="rId5" xr:uid="{753D95A9-84A5-4AC9-A514-4F8D99D509CF}"/>
-    <hyperlink ref="M8" r:id="rId6" xr:uid="{354A5D6A-64A9-428E-A158-302299CBA398}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>